--- a/biology/Médecine/St._Vincent's_University_Hospital/St._Vincent's_University_Hospital.xlsx
+++ b/biology/Médecine/St._Vincent's_University_Hospital/St._Vincent's_University_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St._Vincent%27s_University_Hospital</t>
+          <t>St._Vincent's_University_Hospital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le St. Vincent's University Hospital (en français Hôpital universitaire Saint-Vincent ; en irlandais : Ospidéal Ollscoile Naomh Uinseann) est un hôpital universitaire situé à Elm Park, au sud de la ville de Dublin, en Irlande. Il se trouve à la jonction de Merrion Road et Nutley Lane en face du Merrion Center et à côté du Elm Park Golf Club. Il est géré par l'Ireland East Hospital Group[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le St. Vincent's University Hospital (en français Hôpital universitaire Saint-Vincent ; en irlandais : Ospidéal Ollscoile Naomh Uinseann) est un hôpital universitaire situé à Elm Park, au sud de la ville de Dublin, en Irlande. Il se trouve à la jonction de Merrion Road et Nutley Lane en face du Merrion Center et à côté du Elm Park Golf Club. Il est géré par l'Ireland East Hospital Group.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St._Vincent%27s_University_Hospital</t>
+          <t>St._Vincent's_University_Hospital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital a été créé par Mary Aikenhead, fondatrice de l'ordre catholique des Sœurs de la charité d'Irlande, dans l'ancienne maison du comté de Meath au 56 St Stephen's Green, à Dublin, en 1834[2]. L'hôpital était ouvert à tous ceux qui pouvaient se permettre ses services, quelle que soit leur confession religieuse[3]. Elle a été légalement enregistrée en tant que société le 28 mars 1927[4]. Il a ensuite été déplacé vers son site actuel à Elm Park en 1970, et, en 1999, a été rebaptisé St. Vincent's University Hospital, pour souligner sa position en tant que principal hôpital d'enseignement de l'University College Dublin[5]. Avec l'hôpital Saint-Michel et l'hôpital privé Saint-Vincent, il fait partie du groupe de soins de santé Saint-Vincent (SVHG)[6].
-La première greffe de rein en Irlande a eu lieu au sein de cet établissement le 19 décembre 1963[7],[8],[9].
-En mai 2013, il a été annoncé que le nouvel hôpital national de maternité de Dublin déménagerait sur le site de l'hôpital universitaire Saint-Vincent et que les Sœurs de la Charité auraient la responsabilité de posséder et de gérer le nouvel hôpital. Le 29 mai 2017, en réponse à des semaines de pression et d'inquiétude du public, les Sœurs ont annoncé qu'elles mettaient fin à leur rôle dans le St Vincent's Healthcare Group et ne seraient pas impliquées dans la propriété ou la gestion du nouvel hôpital; les deux sœurs du conseil ont démissionné[10]. Cela a été décrit comme « un tournant majeur dans l'histoire de l'implication religieuse dans les soins de santé irlandais »[11].
-Le 8 mai 2020, il a été annoncé que les sœurs religieuses de la Charité transféreraient la propriété du St Vincent's Healthcare Group à l'État[12]. Ils ont confirmé avoir reçu l'autorisation du Saint-Siège de transférer la propriété, d'une valeur d'environ 200 millions d'euros[12]. Le site du St Vincent's Healthcare Group pourrait alors être transféré de l'ordre religieux à un nouveau groupe caritatif indépendant appelé St Vincent's Holdings CLG[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital a été créé par Mary Aikenhead, fondatrice de l'ordre catholique des Sœurs de la charité d'Irlande, dans l'ancienne maison du comté de Meath au 56 St Stephen's Green, à Dublin, en 1834. L'hôpital était ouvert à tous ceux qui pouvaient se permettre ses services, quelle que soit leur confession religieuse. Elle a été légalement enregistrée en tant que société le 28 mars 1927. Il a ensuite été déplacé vers son site actuel à Elm Park en 1970, et, en 1999, a été rebaptisé St. Vincent's University Hospital, pour souligner sa position en tant que principal hôpital d'enseignement de l'University College Dublin. Avec l'hôpital Saint-Michel et l'hôpital privé Saint-Vincent, il fait partie du groupe de soins de santé Saint-Vincent (SVHG).
+La première greffe de rein en Irlande a eu lieu au sein de cet établissement le 19 décembre 1963.
+En mai 2013, il a été annoncé que le nouvel hôpital national de maternité de Dublin déménagerait sur le site de l'hôpital universitaire Saint-Vincent et que les Sœurs de la Charité auraient la responsabilité de posséder et de gérer le nouvel hôpital. Le 29 mai 2017, en réponse à des semaines de pression et d'inquiétude du public, les Sœurs ont annoncé qu'elles mettaient fin à leur rôle dans le St Vincent's Healthcare Group et ne seraient pas impliquées dans la propriété ou la gestion du nouvel hôpital; les deux sœurs du conseil ont démissionné. Cela a été décrit comme « un tournant majeur dans l'histoire de l'implication religieuse dans les soins de santé irlandais ».
+Le 8 mai 2020, il a été annoncé que les sœurs religieuses de la Charité transféreraient la propriété du St Vincent's Healthcare Group à l'État. Ils ont confirmé avoir reçu l'autorisation du Saint-Siège de transférer la propriété, d'une valeur d'environ 200 millions d'euros. Le site du St Vincent's Healthcare Group pourrait alors être transféré de l'ordre religieux à un nouveau groupe caritatif indépendant appelé St Vincent's Holdings CLG.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St._Vincent%27s_University_Hospital</t>
+          <t>St._Vincent's_University_Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Prestations de service</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital sert de centre régional pour la médecine d'urgence et les soins médicaux au niveau des patients hospitalisés et ambulatoires. De nombreux patients des hôpitaux régionaux et tertiaires sont envoyés à St Vincent pour des soins spécialisés, et il s'agit aussi du centre national de référence pour la transplantation hépatique et la mucoviscidose chez l'adulte. Lié étroitement à l'université, il sert de terrain de formation pour les médecins, les infirmières, les radiographes et les physiothérapeutes, ainsi qu'aux enseignants des cours de premier cycle de l'UCD[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital sert de centre régional pour la médecine d'urgence et les soins médicaux au niveau des patients hospitalisés et ambulatoires. De nombreux patients des hôpitaux régionaux et tertiaires sont envoyés à St Vincent pour des soins spécialisés, et il s'agit aussi du centre national de référence pour la transplantation hépatique et la mucoviscidose chez l'adulte. Lié étroitement à l'université, il sert de terrain de formation pour les médecins, les infirmières, les radiographes et les physiothérapeutes, ainsi qu'aux enseignants des cours de premier cycle de l'UCD.
 </t>
         </is>
       </c>
